--- a/仕様書.xlsx
+++ b/仕様書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sfujita\Documents\GitHub\python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B52C6EF7-1CAB-4464-AF91-2AF1DBF34E12}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4731B7C-071A-45BB-84BB-2C6B169FF52C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12528" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12528" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="プログラムの説明" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="82">
   <si>
     <t>ターゲットURL</t>
     <phoneticPr fontId="1"/>
@@ -552,6 +552,42 @@
     </rPh>
     <rPh sb="22" eb="24">
       <t>ケイサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>getGold.py</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://gold.tanaka.co.jp/commodity/souba/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>田中貴金属工業</t>
+    <rPh sb="0" eb="2">
+      <t>タナカ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>キキンゾク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>コウギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>田中貴金属工業サイトから貴金属価格情報を取得する</t>
+    <rPh sb="20" eb="22">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Gold.py
+3レコード作成する</t>
+    <rPh sb="13" eb="15">
+      <t>サクセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -949,9 +985,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:H30"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -1247,14 +1283,26 @@
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="2:8">
+    <row r="16" spans="2:8" ht="36">
       <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
+      <c r="C16" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="17" spans="2:8">
       <c r="B17" s="3"/>
@@ -1397,9 +1445,10 @@
     <hyperlink ref="D13" r:id="rId10" xr:uid="{E5CA315E-59D3-40BC-BED0-689B11CC6353}"/>
     <hyperlink ref="D14" r:id="rId11" xr:uid="{93A3DCC0-EFB4-4755-9D87-201F579E4EA9}"/>
     <hyperlink ref="D15" r:id="rId12" xr:uid="{253C50F2-76B5-48C7-A316-B830149895B1}"/>
+    <hyperlink ref="D16" r:id="rId13" xr:uid="{77A41BE8-7273-4C18-93C2-52ACEC6DF835}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId13"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId14"/>
 </worksheet>
 </file>
 
@@ -1476,7 +1525,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9704153C-AF34-4AA1-8C9B-FDC20FFEDCC7}">
   <dimension ref="C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
